--- a/data/trans_orig/Q24D_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q24D_2-Edad-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>2.143465589904248</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>3.504593403859643</v>
+        <v>3.504593403859644</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.485961769471895</v>
+        <v>1.488136315318836</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.769949732520257</v>
+        <v>1.775752977354217</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.99019873128238</v>
+        <v>1.983140021894498</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.098600325794889</v>
+        <v>2.102287985372779</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.810238168318455</v>
+        <v>1.786641718892989</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.827948689207214</v>
+        <v>1.839585649004564</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.518960533799517</v>
+        <v>1.498365702450101</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.348478491506554</v>
+        <v>2.316442053171047</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.812325190410973</v>
+        <v>1.813683861695907</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1.881862020905348</v>
+        <v>1.897637453392168</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.840933678818661</v>
+        <v>1.843965342816015</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>2.530417597107463</v>
+        <v>2.526147896711149</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.572322726498875</v>
+        <v>2.584635439765427</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.32446834550036</v>
+        <v>2.319777598778031</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.967463129168393</v>
+        <v>3.066462347827195</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.29754060506877</v>
+        <v>9.848657273505827</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.700146416394015</v>
+        <v>2.732195472251548</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.878915461718706</v>
+        <v>2.961602833226932</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.108176914184745</v>
+        <v>2.152192914717917</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.325064676121471</v>
+        <v>4.242141640148001</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.482358070500919</v>
+        <v>2.493700376969016</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2.492461324682306</v>
+        <v>2.4706954358537</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2.493375066060386</v>
+        <v>2.493100947263083</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>6.611173173767718</v>
+        <v>6.519963842637718</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>2.453783693095322</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>2.932850563089819</v>
+        <v>2.932850563089818</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.931758253418741</v>
+        <v>1.915776016193696</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.185458493347116</v>
+        <v>2.191310007584318</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.233415617785096</v>
+        <v>2.236041945295292</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.026494174911816</v>
+        <v>1.994898895346513</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.417977073625472</v>
+        <v>1.408177335402671</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2.179493038014467</v>
+        <v>2.140251868736257</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.061030709954787</v>
+        <v>2.057295149001429</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.449481906111596</v>
+        <v>2.404329499258921</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>1.783786914177836</v>
+        <v>1.775873066823507</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2.236496038543375</v>
+        <v>2.265802757253451</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2.229497318046843</v>
+        <v>2.216203693141742</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>2.355219440044278</v>
+        <v>2.401410580299123</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.312899962643392</v>
+        <v>3.531227536920519</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.813843485305167</v>
+        <v>2.805692372196239</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.855991125069433</v>
+        <v>2.82037914262995</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.779369115805661</v>
+        <v>3.777362910846219</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.855094597087011</v>
+        <v>1.870350957449533</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>2.749954635906411</v>
+        <v>2.717988055815009</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.037485450306281</v>
+        <v>3.068169836749584</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>4.849749982340992</v>
+        <v>4.894021361996145</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.628254054796519</v>
+        <v>2.655088562688812</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2.67309679089313</v>
+        <v>2.680561020663455</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2.73975696602149</v>
+        <v>2.74535936585374</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>3.804936426831083</v>
+        <v>4.035102107217425</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>2.703393225404732</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.902690363617256</v>
+        <v>2.902690363617255</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>2.489507677432273</v>
@@ -965,7 +965,7 @@
         <v>2.696181288623158</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>2.642441560862677</v>
+        <v>2.642441560862676</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.90405512334085</v>
+        <v>1.897111847715313</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.317864895477678</v>
+        <v>2.309518865011207</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.306180194898895</v>
+        <v>2.335422246487494</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.285678386099296</v>
+        <v>2.331769258825842</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.218488434869269</v>
+        <v>2.236736459751494</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.115541650268412</v>
+        <v>2.107536617148173</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.348659232831112</v>
+        <v>2.373528109502987</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.108643891858131</v>
+        <v>2.102334678852476</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.145678091287162</v>
+        <v>2.142475079643074</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2.305840663014963</v>
+        <v>2.30538779284003</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2.458930961591955</v>
+        <v>2.432438835689113</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>2.305439511448804</v>
+        <v>2.295461034639152</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.773475716971014</v>
+        <v>2.72011431007944</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.989876519119802</v>
+        <v>4.01618966443259</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.378205490436019</v>
+        <v>3.332150590996429</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.823159239966778</v>
+        <v>3.945909004686661</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.811069746155024</v>
+        <v>2.800398568744187</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.716815545358358</v>
+        <v>2.699808160637353</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.091387215078332</v>
+        <v>3.143849252183674</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.823345630465983</v>
+        <v>2.83897806315362</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.614616192471348</v>
+        <v>2.642139995654467</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3.226924842207076</v>
+        <v>3.348255172784632</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3.105175541318354</v>
+        <v>3.083372331314287</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>3.295710137048011</v>
+        <v>3.182690373557887</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>2.282438219781979</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.005223026400698</v>
+        <v>3.005223026400699</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>2.490229631573939</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.618247245343543</v>
+        <v>2.516272582315555</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.582304374923241</v>
+        <v>2.522446301661663</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.005801770739792</v>
+        <v>1.999164111723219</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.35331521131123</v>
+        <v>2.394097363701095</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>2.023974490318806</v>
+        <v>1.995620399205391</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.140800165966313</v>
+        <v>2.141764415326681</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.188726377945694</v>
+        <v>2.186146067263252</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.191343466088679</v>
+        <v>2.197461831439742</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.539348030288377</v>
+        <v>2.474885776946957</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2.448238359109764</v>
+        <v>2.435599263176474</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2.169132380441745</v>
+        <v>2.183677859032093</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>2.37995868883771</v>
+        <v>2.406665215376104</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.133522765235895</v>
+        <v>4.710913124898383</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.64166447229851</v>
+        <v>3.682896384233253</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.656548283679903</v>
+        <v>2.655574943378933</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.600124707247943</v>
+        <v>4.907513386914348</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.279877447145785</v>
+        <v>3.313179485555878</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>2.782182545462716</v>
+        <v>2.813102057301863</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.938885584943327</v>
+        <v>2.884539024500873</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.004597947346302</v>
+        <v>2.992100713490776</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.987947523942494</v>
+        <v>3.940625617049913</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3.075535887503827</v>
+        <v>3.075120561050205</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>2.664399574674836</v>
+        <v>2.67654541806775</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>3.545793936866462</v>
+        <v>3.583736730919112</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>2.210704419428475</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>2.796788548643106</v>
+        <v>2.796788548643105</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>3.130219503156962</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.44505435679347</v>
+        <v>2.387235267239425</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.455490931332086</v>
+        <v>2.446419207723793</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.287845065758031</v>
+        <v>2.270415589497659</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.382429434791738</v>
+        <v>2.323720350441594</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.534631782592102</v>
+        <v>1.518201852387941</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.148773219380797</v>
+        <v>2.143991598043026</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.825392462203012</v>
+        <v>1.844832438371854</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.456691570938505</v>
+        <v>2.432041998039523</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.351996968261123</v>
+        <v>2.32966513361803</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2.507075967750195</v>
+        <v>2.48090554394696</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2.175179977866187</v>
+        <v>2.189737899120589</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>2.506103664826795</v>
+        <v>2.539754332759206</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.372760404304062</v>
+        <v>5.374443202681756</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.392995722279197</v>
+        <v>3.387977950371412</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.840269693233231</v>
+        <v>3.91959766315215</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.337204330991347</v>
+        <v>7.080728552414101</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.194361005705707</v>
+        <v>3.129635072305267</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.324702369264007</v>
+        <v>6.51835953820939</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.86067135020286</v>
+        <v>2.857136872667175</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.529417854647103</v>
+        <v>3.422936883987439</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.670673933470592</v>
+        <v>4.575058005358613</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3.676429202337141</v>
+        <v>3.587221212651754</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3.145673563550271</v>
+        <v>3.257230970695721</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>4.877328798932234</v>
+        <v>5.176482079299146</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.624997267915985</v>
+        <v>2.630517349236767</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.075355233239347</v>
+        <v>2.081357883701156</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.808127211764368</v>
+        <v>1.821181903961091</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.54435313281581</v>
+        <v>2.65224833077858</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.219582866559588</v>
+        <v>1</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1.995649663193764</v>
+        <v>1.995716044413489</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1.75061094868147</v>
+        <v>1.731259423735215</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.434373621414895</v>
+        <v>2.417648848773823</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>2.455789868115654</v>
+        <v>2.431250480019026</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2.231416116999481</v>
+        <v>2.239876658358052</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1.947411811260117</v>
+        <v>1.910034583881404</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>2.686380973794344</v>
+        <v>2.69477319724038</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.705292745943317</v>
+        <v>4.706223963090917</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.778741865452693</v>
+        <v>3.709538852991404</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.887094796103491</v>
+        <v>2.873939525565852</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.198579930771744</v>
+        <v>5.489438727670922</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>2.776133457004886</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>4.544438276329153</v>
+        <v>4.543470271760734</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>2.554066675278203</v>
+        <v>2.553596694475142</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>5.002169382261899</v>
+        <v>4.718335251262508</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>4.265029141989581</v>
+        <v>4.282332903581842</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3.74002059227618</v>
+        <v>3.699764746635156</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2.696318382399227</v>
+        <v>2.678397371274191</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>4.560424238856448</v>
+        <v>4.480373597878335</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>3.365464358583953</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3.429566138069959</v>
+        <v>3.42956613806996</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>1</v>
@@ -1520,16 +1520,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.59087884695347</v>
+        <v>2.719589839024354</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.528248094392275</v>
+        <v>1.543130837733283</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.277313344188976</v>
+        <v>2.35353253789452</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.134053549953451</v>
+        <v>2.102732956632596</v>
       </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="inlineStr"/>
@@ -1540,16 +1540,16 @@
         <v>2.098082538747716</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.510005978825764</v>
+        <v>2.334232400537457</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1.751813615485949</v>
+        <v>1.725518409466954</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3.005394411416662</v>
+        <v>2.964072586943488</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>2.699106793747041</v>
+        <v>2.609695113164488</v>
       </c>
     </row>
     <row r="24">
@@ -1560,16 +1560,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.200789290341182</v>
+        <v>7.25189291559105</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.507591169255429</v>
+        <v>3.526949681017654</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.153690991066938</v>
+        <v>5.257582895630352</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.407081604091151</v>
+        <v>6.123049503476452</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
@@ -1580,16 +1580,16 @@
         <v>16.01003690705838</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.805306543511627</v>
+        <v>6.493024748655159</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3.777991517714269</v>
+        <v>3.616650832718913</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9.831807690240929</v>
+        <v>9.570565713800281</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>8.742628173763938</v>
+        <v>9.300577813024132</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>2.500145783127896</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>2.806916092167182</v>
+        <v>2.806916092167181</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>2.546709851546261</v>
@@ -1648,40 +1648,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.488990885884346</v>
+        <v>2.474705189447718</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.472324490230836</v>
+        <v>2.504968474563871</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.378023941633734</v>
+        <v>2.361133954966592</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.724245609167471</v>
+        <v>2.705481736684597</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>2.028291952664333</v>
+        <v>2.025559129020244</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>2.269840658586899</v>
+        <v>2.287350491767571</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>2.287587348311288</v>
+        <v>2.306211710894902</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>2.563777541146889</v>
+        <v>2.560396297832601</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>2.340035054628288</v>
+        <v>2.331082102231687</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2.442452027462509</v>
+        <v>2.439552416660645</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2.385793830055048</v>
+        <v>2.400800573515446</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>2.719563235333752</v>
+        <v>2.735659164194805</v>
       </c>
     </row>
     <row r="27">
@@ -1692,40 +1692,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.254563016987776</v>
+        <v>3.22382721821087</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.992356846268935</v>
+        <v>2.997300131215957</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.806083286967731</v>
+        <v>2.786396878604636</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4.03560645571716</v>
+        <v>3.955030086507339</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>2.380467173248343</v>
+        <v>2.390295121563728</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>2.627221055260619</v>
+        <v>2.653088081225899</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>2.766482135751191</v>
+        <v>2.788921881670293</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>3.162402832368852</v>
+        <v>3.115872021484142</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>2.83953389340313</v>
+        <v>2.799608409582469</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2.761946355245786</v>
+        <v>2.750439870852743</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2.687587016998183</v>
+        <v>2.707375219885739</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>3.431339753346834</v>
+        <v>3.442373374849865</v>
       </c>
     </row>
     <row r="28">
